--- a/HFSPlusformat_2009.xlsx
+++ b/HFSPlusformat_2009.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="318">
   <si>
     <t>kHFSSigWord</t>
   </si>
@@ -974,7 +974,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>HFSPlusExtentRecord[8]</t>
+    <t>HFSPlusExtentRecord</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFSPlusExtentDescriptor[8]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFSPlusAttrInlineData</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1649,7 +1657,12 @@
   <autoFilter ref="A1:E167">
     <filterColumn colId="0">
       <filters>
-        <filter val="HFSPlusForkData"/>
+        <filter val="HFSPlusAttrData"/>
+        <filter val="HFSPlusAttrExtents"/>
+        <filter val="HFSPlusAttrForkData"/>
+        <filter val="HFSPlusAttrInlineData"/>
+        <filter val="HFSPlusAttrKey"/>
+        <filter val="HFSPlusAttrRecord"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1964,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2826,7 +2839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -2894,7 +2907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -2936,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
         <v>37</v>
@@ -2945,7 +2958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>160</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
@@ -2996,7 +3009,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -3013,7 +3026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -3030,9 +3043,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -3047,7 +3060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>175</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -3166,7 +3179,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -3200,7 +3213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3217,7 +3230,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>169</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -4120,7 +4133,7 @@
     </row>
     <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4137,7 +4150,7 @@
     </row>
     <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -4152,7 +4165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -4203,7 +4216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -4832,7 +4845,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4851,10 +4864,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
